--- a/xlsx/美南浸信会_intext.xlsx
+++ b/xlsx/美南浸信会_intext.xlsx
@@ -15,201 +15,210 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="68">
   <si>
     <t>美南浸信会</t>
   </si>
   <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E6%9C%83</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督教新教</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_美南浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
+  </si>
+  <si>
+    <t>美国</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8C%97%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美北浸礼会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
+  </si>
+  <si>
+    <t>奴隶制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
+  </si>
+  <si>
+    <t>种族隔离</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E6%96%B9</t>
+  </si>
+  <si>
+    <t>美国南方</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>白人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
+  </si>
+  <si>
+    <t>美国政府</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
+  </si>
+  <si>
+    <t>种族歧视</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
+  </si>
+  <si>
+    <t>非洲裔美国人</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
+  </si>
+  <si>
+    <t>保守</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>加尔文主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B1%B3%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
+  </si>
+  <si>
+    <t>亚米念主义</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%95%91%E8%AE%BA</t>
+  </si>
+  <si>
+    <t>普救论</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B</t>
+  </si>
+  <si>
+    <t>同性恋</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%9B%B4%E6%AD%A3%E6%95%99</t>
+  </si>
+  <si>
+    <t>更正教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
+  </si>
+  <si>
+    <t>基督新教</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>田纳西州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
+  </si>
+  <si>
+    <t>纳什维尔</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E4%BC%9A%E5%B7%AE%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>美南浸信会差会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%9F%B9%E7%90%86</t>
+  </si>
+  <si>
+    <t>葛培理</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%90%86%E5%85%8B</t>
+  </si>
+  <si>
+    <t>华理克</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
+  </si>
+  <si>
+    <t>加州</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF%E7%AC%AC%E4%B8%80%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
+  </si>
+  <si>
+    <t>达拉斯第一浸信会</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E8%AF%BA_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
+  </si>
+  <si>
+    <t>普莱诺 (得克萨斯州)</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%A7%91%E5%A1%94%C2%B7%E8%8A%AC%E5%A6%AE</t>
+  </si>
+  <si>
+    <t>达科塔·芬妮</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%B8%BD%C2%B7%E8%8C%83%E5%AE%81</t>
+  </si>
+  <si>
+    <t>艾丽·范宁</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
+  </si>
+  <si>
+    <t>权威控制</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
+  </si>
+  <si>
+    <t>国际标准名称识别码</t>
+  </si>
+  <si>
+    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
+  </si>
+  <si>
+    <t>整合规范文档</t>
+  </si>
+  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%95%99%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督教新教</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_美南浸信会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>美国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>浸信会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8C%97%E6%B5%B8%E7%A4%BC%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美北浸礼会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A5%B4%E9%9A%B6%E5%88%B6</t>
-  </si>
-  <si>
-    <t>奴隶制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%8D%E6%97%8F%E9%9A%94%E7%A6%BB</t>
-  </si>
-  <si>
-    <t>种族隔离</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%8D%97%E6%96%B9</t>
-  </si>
-  <si>
-    <t>美國南方</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>白人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%94%BF%E5%BA%9C</t>
-  </si>
-  <si>
-    <t>美國政府</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A8%AE%E6%97%8F%E6%AD%A7%E8%A6%96</t>
-  </si>
-  <si>
-    <t>種族歧視</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E6%B4%B2%E8%A3%94%E7%BE%8E%E5%9C%8B%E4%BA%BA</t>
-  </si>
-  <si>
-    <t>非洲裔美國人</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%9D%E5%AE%88</t>
-  </si>
-  <si>
-    <t>保守</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E7%88%BE%E6%96%87%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>加爾文主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%B1%B3%E5%BF%B5%E4%B8%BB%E7%BE%A9</t>
-  </si>
-  <si>
-    <t>亞米念主義</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E6%95%91%E8%AE%BA</t>
-  </si>
-  <si>
-    <t>普救论</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%81%8B</t>
-  </si>
-  <si>
-    <t>同性恋</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9B%B4%E6%AD%A3%E6%95%99</t>
-  </si>
-  <si>
-    <t>更正教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E7%9D%A3%E6%96%B0%E6%95%99</t>
-  </si>
-  <si>
-    <t>基督新教</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>田纳西州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94</t>
-  </si>
-  <si>
-    <t>纳什维尔</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8D%97%E6%B5%B8%E4%BF%A1%E4%BC%9A%E5%B7%AE%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>美南浸信会差会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%91%9B%E5%9F%B9%E7%90%86</t>
-  </si>
-  <si>
-    <t>葛培理</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%90%86%E5%85%8B</t>
-  </si>
-  <si>
-    <t>華理克</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
-  </si>
-  <si>
-    <t>加州</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%E6%8B%89%E6%96%AF%E7%AC%AC%E4%B8%80%E6%B5%B8%E4%BF%A1%E4%BC%9A</t>
-  </si>
-  <si>
-    <t>达拉斯第一浸信会</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%99%AE%E8%8E%B1%E8%AF%BA_(%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E)</t>
-  </si>
-  <si>
-    <t>普莱诺 (得克萨斯州)</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%81%94%E7%A7%91%E5%A1%94%C2%B7%E8%8A%AC%E5%A6%AE</t>
-  </si>
-  <si>
-    <t>達科塔·芬妮</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%89%BE%E4%B8%BD%C2%B7%E8%8C%83%E5%AE%81</t>
-  </si>
-  <si>
-    <t>艾丽·范宁</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
-  </si>
-  <si>
-    <t>權威控制</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
-  </si>
-  <si>
-    <t>國際標準名稱識別碼</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
-  </si>
-  <si>
-    <t>整合规范文档</t>
+    <t>浏览条目正文[c]</t>
+  </si>
+  <si>
+    <t>阅读</t>
   </si>
 </sst>
 </file>
@@ -558,7 +567,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1491,6 +1500,64 @@
         <v>3</v>
       </c>
     </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>65</v>
+      </c>
+      <c r="F33" t="s">
+        <v>66</v>
+      </c>
+      <c r="G33" t="n">
+        <v>9</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>65</v>
+      </c>
+      <c r="F34" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
